--- a/leetcode_7_check_task.xlsx
+++ b/leetcode_7_check_task.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/LeetCodeProblems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E248B2-946C-2B41-B012-4487C56DF205}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC054DF7-1D17-3843-9AB1-B7F98A003DF6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16000" yWindow="460" windowWidth="12800" windowHeight="16160" xr2:uid="{0338AAF4-5980-B146-A75A-C35532F45467}"/>
+    <workbookView xWindow="1140" yWindow="460" windowWidth="27660" windowHeight="16020" xr2:uid="{0338AAF4-5980-B146-A75A-C35532F45467}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -588,6 +588,9 @@
   <si>
     <t>二分查找</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/chen_xinjia/article/details/69258706</t>
   </si>
 </sst>
 </file>
@@ -1054,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39131D7-F5CA-9844-8689-105AE96F5134}">
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -1102,6 +1105,12 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
@@ -1113,6 +1122,9 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
@@ -1124,6 +1136,9 @@
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
@@ -1135,6 +1150,9 @@
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
@@ -1146,6 +1164,9 @@
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
@@ -1157,6 +1178,9 @@
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
@@ -1168,7 +1192,9 @@
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
@@ -1894,8 +1920,9 @@
     <hyperlink ref="B31" r:id="rId30" display="https://leetcode.com/problems/kth-smallest-number-in-multiplication-table" xr:uid="{B19D372D-1182-5A44-AF0C-7E8040E854EC}"/>
     <hyperlink ref="B32" r:id="rId31" display="https://leetcode.com/problems/longest-increasing-subsequence" xr:uid="{450B36B8-37D5-D04A-A8D1-F4983D4B7DC6}"/>
     <hyperlink ref="B33" r:id="rId32" display="https://leetcode.com/problems/guess-number-higher-or-lower" xr:uid="{FFB8B23A-510D-D842-89B5-AD155C3C10AF}"/>
+    <hyperlink ref="G2" r:id="rId33" xr:uid="{5469C2B9-84AC-524A-9DFB-B976EF16C041}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
--- a/leetcode_7_check_task.xlsx
+++ b/leetcode_7_check_task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/LeetCodeProblems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC054DF7-1D17-3843-9AB1-B7F98A003DF6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DA155A-5D52-7548-9753-7DDB6EF2B34F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="460" windowWidth="27660" windowHeight="16020" xr2:uid="{0338AAF4-5980-B146-A75A-C35532F45467}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -591,6 +591,10 @@
   </si>
   <si>
     <t>https://blog.csdn.net/chen_xinjia/article/details/69258706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haiyouewnti </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1058,7 +1062,7 @@
   <dimension ref="A1:G111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -1206,7 +1210,9 @@
       <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
@@ -1218,7 +1224,9 @@
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
@@ -1230,7 +1238,9 @@
       <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">

--- a/leetcode_7_check_task.xlsx
+++ b/leetcode_7_check_task.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/LeetCodeProblems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DA155A-5D52-7548-9753-7DDB6EF2B34F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B6E757-8EF0-9A42-B1A2-804374A08384}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="460" windowWidth="27660" windowHeight="16020" xr2:uid="{0338AAF4-5980-B146-A75A-C35532F45467}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{0338AAF4-5980-B146-A75A-C35532F45467}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -591,10 +591,6 @@
   </si>
   <si>
     <t>https://blog.csdn.net/chen_xinjia/article/details/69258706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">haiyouewnti </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1062,7 +1058,7 @@
   <dimension ref="A1:G111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -1238,8 +1234,8 @@
       <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>44</v>
+      <c r="D11" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1252,7 +1248,9 @@
       <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
@@ -1264,7 +1262,9 @@
       <c r="C13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
@@ -1276,7 +1276,9 @@
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
@@ -1288,7 +1290,9 @@
       <c r="C15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">

--- a/leetcode_7_check_task.xlsx
+++ b/leetcode_7_check_task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/LeetCodeProblems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B6E757-8EF0-9A42-B1A2-804374A08384}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CF7DBA-1A9C-9C4A-B715-CF4BE0848D52}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{0338AAF4-5980-B146-A75A-C35532F45467}"/>
   </bookViews>
@@ -1057,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39131D7-F5CA-9844-8689-105AE96F5134}">
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -1304,7 +1304,9 @@
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
@@ -1316,7 +1318,9 @@
       <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
@@ -1328,7 +1332,9 @@
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">

--- a/leetcode_7_check_task.xlsx
+++ b/leetcode_7_check_task.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/LeetCodeProblems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CF7DBA-1A9C-9C4A-B715-CF4BE0848D52}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952A853E-D8F5-E04D-8FA4-F87C46FB206E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{0338AAF4-5980-B146-A75A-C35532F45467}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,23 +363,6 @@
   </si>
   <si>
     <r>
-      <t>Dungeon Game</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="10"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>    </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Divide Two Integers</t>
     </r>
     <r>
@@ -591,13 +574,20 @@
   </si>
   <si>
     <t>https://blog.csdn.net/chen_xinjia/article/details/69258706</t>
+  </si>
+  <si>
+    <t>Dungeon Game    </t>
+  </si>
+  <si>
+    <t>树的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -664,13 +654,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -690,7 +694,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -710,6 +714,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1057,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39131D7-F5CA-9844-8689-105AE96F5134}">
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -1109,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1117,7 +1127,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -1346,7 +1356,9 @@
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3">
@@ -1358,74 +1370,89 @@
       <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3">
         <v>174</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>28</v>
+      <c r="B21" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3">
         <v>222</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3">
         <v>270</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>31</v>
+      <c r="B23" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3">
         <v>704</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3">
         <v>167</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3">
         <v>302</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
@@ -1437,7 +1464,7 @@
         <v>354</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
@@ -1450,7 +1477,7 @@
         <v>363</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>8</v>
@@ -1462,7 +1489,7 @@
         <v>230</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>3</v>
@@ -1474,7 +1501,7 @@
         <v>378</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>3</v>
@@ -1486,7 +1513,7 @@
         <v>668</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
@@ -1498,7 +1525,7 @@
         <v>300</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>3</v>
@@ -1510,7 +1537,7 @@
         <v>374</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
@@ -1525,7 +1552,7 @@
     <row r="35" spans="1:4">
       <c r="A35" s="3"/>
       <c r="B35" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D35" s="2"/>
     </row>

--- a/leetcode_7_check_task.xlsx
+++ b/leetcode_7_check_task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/LeetCodeProblems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952A853E-D8F5-E04D-8FA4-F87C46FB206E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9995790-17A4-4547-B999-CAC0EB8812F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{0338AAF4-5980-B146-A75A-C35532F45467}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -465,23 +465,6 @@
   </si>
   <si>
     <r>
-      <t>Russian Doll Envelopes</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="10"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>    </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Max Sum of Rectangle No Larger Than K</t>
     </r>
     <r>
@@ -580,6 +563,21 @@
   </si>
   <si>
     <t>树的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分法？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Russian Doll Envelopes    </t>
+  </si>
+  <si>
+    <t>超出时间限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划，二分查找</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,7 +585,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -662,6 +660,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -694,7 +701,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -720,6 +727,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1067,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39131D7-F5CA-9844-8689-105AE96F5134}">
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -1119,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1379,7 +1389,7 @@
         <v>174</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -1416,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1457,27 +1467,35 @@
       <c r="C26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3">
         <v>354</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>34</v>
+      <c r="B27" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="2"/>
+      <c r="E27" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3">
         <v>363</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>35</v>
+      <c r="B28" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>8</v>
@@ -1488,8 +1506,8 @@
       <c r="A29" s="3">
         <v>230</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>36</v>
+      <c r="B29" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>3</v>
@@ -1500,8 +1518,8 @@
       <c r="A30" s="3">
         <v>378</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>37</v>
+      <c r="B30" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>3</v>
@@ -1512,8 +1530,8 @@
       <c r="A31" s="3">
         <v>668</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>38</v>
+      <c r="B31" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
@@ -1524,25 +1542,30 @@
       <c r="A32" s="3">
         <v>300</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>39</v>
+      <c r="B32" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="2"/>
+      <c r="E32" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="6">
         <v>374</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3"/>
@@ -1552,7 +1575,7 @@
     <row r="35" spans="1:4">
       <c r="A35" s="3"/>
       <c r="B35" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D35" s="2"/>
     </row>

--- a/leetcode_7_check_task.xlsx
+++ b/leetcode_7_check_task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/LeetCodeProblems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9995790-17A4-4547-B999-CAC0EB8812F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC5179B-9F6A-0549-9930-1211B32A3EC9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{0338AAF4-5980-B146-A75A-C35532F45467}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -578,6 +578,10 @@
   </si>
   <si>
     <t>动态规划，二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有完成的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1077,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39131D7-F5CA-9844-8689-105AE96F5134}">
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:B32"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -1596,7 +1600,9 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3"/>
-      <c r="B39" s="5"/>
+      <c r="B39" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4">
